--- a/data/trans_orig/P24C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B68401A-9C2B-436B-90EC-B234E07D8532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{086BC919-3508-4E0F-B9C9-25CFF4D03D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EEBAE2DE-A4F2-495A-98CB-CDC28B957D3F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF5FFBA7-2D2C-423D-9565-BF337E9862FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -76,1383 +76,1389 @@
     <t>47,9%</t>
   </si>
   <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
     <t>31,58%</t>
   </si>
   <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2015 (Tasa respuesta: 29,73%)</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
   </si>
   <si>
     <t>43,45%</t>
   </si>
   <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2015 (Tasa respuesta: 29,73%)</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
     <t>50,44%</t>
   </si>
   <si>
@@ -1483,13 +1489,7 @@
     <t>42,41%</t>
   </si>
   <si>
-    <t>37,24%</t>
-  </si>
-  <si>
     <t>35,13%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
   </si>
 </sst>
 </file>
@@ -1901,7 +1901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909AA078-69F3-4DC3-AAF2-04CBF1353264}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329B9F17-CB2E-48E8-897A-EA638986B5A5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2542,10 +2542,10 @@
         <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -2554,13 +2554,13 @@
         <v>45142</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -2569,13 +2569,13 @@
         <v>115380</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,7 +2631,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2643,13 +2643,13 @@
         <v>93114</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -2658,13 +2658,13 @@
         <v>60844</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>150</v>
@@ -2673,13 +2673,13 @@
         <v>153958</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2694,13 @@
         <v>86145</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
@@ -2709,13 +2709,13 @@
         <v>61059</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -2724,13 +2724,13 @@
         <v>147205</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2745,13 @@
         <v>73939</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -2760,13 +2760,13 @@
         <v>48098</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>117</v>
@@ -2775,13 +2775,13 @@
         <v>122037</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2837,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2849,13 @@
         <v>170385</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -2864,13 +2864,13 @@
         <v>105515</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>282</v>
@@ -2879,13 +2879,13 @@
         <v>275900</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2900,13 @@
         <v>158909</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>132</v>
@@ -2915,7 +2915,7 @@
         <v>138242</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>137</v>
@@ -2972,7 +2972,7 @@
         <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>137</v>
@@ -2981,13 +2981,13 @@
         <v>136060</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3055,13 @@
         <v>599880</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>345</v>
@@ -3070,13 +3070,13 @@
         <v>348212</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>940</v>
@@ -3085,13 +3085,13 @@
         <v>948092</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3106,13 @@
         <v>511219</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>337</v>
@@ -3121,13 +3121,13 @@
         <v>346931</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>827</v>
@@ -3136,13 +3136,13 @@
         <v>858150</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3157,13 @@
         <v>272291</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>162</v>
@@ -3172,13 +3172,13 @@
         <v>167159</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>424</v>
@@ -3187,13 +3187,13 @@
         <v>439450</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,7 +3249,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13CECB0-D06B-4438-9906-73545694C6C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B49472-5F87-4D12-8C51-D0BF712B3C3B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3287,7 +3287,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3394,13 +3394,13 @@
         <v>9420</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3409,13 +3409,13 @@
         <v>2032</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3424,13 +3424,13 @@
         <v>11453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3445,13 @@
         <v>25174</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3460,13 +3460,13 @@
         <v>12691</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -3475,13 +3475,13 @@
         <v>37865</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3496,13 @@
         <v>17066</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3511,13 +3511,13 @@
         <v>5295</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -3526,13 +3526,13 @@
         <v>22361</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3600,13 @@
         <v>31748</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -3615,13 +3615,13 @@
         <v>24443</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -3630,13 +3630,13 @@
         <v>56192</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3651,13 @@
         <v>101819</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H9" s="7">
         <v>66</v>
@@ -3666,13 +3666,13 @@
         <v>69255</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>163</v>
@@ -3681,13 +3681,13 @@
         <v>171074</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3702,13 @@
         <v>83388</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3717,13 +3717,13 @@
         <v>47170</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -3732,13 +3732,13 @@
         <v>130558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3806,13 @@
         <v>67303</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -3821,13 +3821,13 @@
         <v>20635</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -3836,13 +3836,13 @@
         <v>87939</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3857,13 @@
         <v>179383</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -3872,13 +3872,13 @@
         <v>156250</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M13" s="7">
         <v>308</v>
@@ -3887,13 +3887,13 @@
         <v>335633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3908,13 @@
         <v>157781</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>103</v>
@@ -3923,13 +3923,13 @@
         <v>113462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>247</v>
@@ -3938,13 +3938,13 @@
         <v>271243</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,7 +4000,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4012,13 +4012,13 @@
         <v>55071</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>150</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -4027,13 +4027,13 @@
         <v>44261</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -4042,13 +4042,13 @@
         <v>99332</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4063,13 @@
         <v>143243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -4078,13 +4078,13 @@
         <v>101934</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>222</v>
@@ -4093,13 +4093,13 @@
         <v>245177</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4114,13 @@
         <v>112360</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>73</v>
@@ -4129,13 +4129,13 @@
         <v>83701</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>173</v>
@@ -4144,13 +4144,13 @@
         <v>196061</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,7 +4206,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4218,13 +4218,13 @@
         <v>72234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -4233,13 +4233,13 @@
         <v>46907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -4248,13 +4248,13 @@
         <v>119141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4269,13 @@
         <v>174921</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>291</v>
+        <v>111</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="H21" s="7">
         <v>130</v>
@@ -4284,13 +4284,13 @@
         <v>135645</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M21" s="7">
         <v>303</v>
@@ -4299,13 +4299,13 @@
         <v>310565</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4320,13 @@
         <v>114354</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -4335,13 +4335,13 @@
         <v>110667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
         <v>209</v>
@@ -4350,13 +4350,13 @@
         <v>225021</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4424,13 @@
         <v>235777</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H24" s="7">
         <v>128</v>
@@ -4439,13 +4439,13 @@
         <v>138279</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>353</v>
@@ -4454,13 +4454,13 @@
         <v>374056</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,10 +4475,10 @@
         <v>624540</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>317</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>318</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4639,7 +4639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F73275F-0808-4993-8509-478C368D8AA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445812B7-D753-4533-8F19-75A187BC9EF4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5104,10 +5104,10 @@
         <v>385</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,7 +5196,7 @@
         <v>391</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>392</v>
+        <v>91</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -5205,13 +5205,13 @@
         <v>68788</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5226,13 @@
         <v>169327</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -5241,13 +5241,13 @@
         <v>127720</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M13" s="7">
         <v>278</v>
@@ -5256,13 +5256,13 @@
         <v>297047</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5277,13 @@
         <v>116960</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -5292,13 +5292,13 @@
         <v>104443</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M14" s="7">
         <v>204</v>
@@ -5307,13 +5307,13 @@
         <v>221403</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,7 +5369,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5381,13 +5381,13 @@
         <v>51413</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -5396,13 +5396,13 @@
         <v>34970</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -5411,13 +5411,13 @@
         <v>86382</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5432,13 @@
         <v>155628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
@@ -5447,7 +5447,7 @@
         <v>109970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>424</v>
@@ -5486,10 +5486,10 @@
         <v>429</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>52</v>
+        <v>430</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -5498,13 +5498,13 @@
         <v>77303</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M18" s="7">
         <v>166</v>
@@ -5513,7 +5513,7 @@
         <v>177305</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>432</v>
+        <v>326</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>433</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5644,7 +5644,7 @@
         <v>445</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H21" s="7">
         <v>96</v>
@@ -5656,10 +5656,10 @@
         <v>446</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>302</v>
+        <v>447</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M21" s="7">
         <v>208</v>
@@ -5671,10 +5671,10 @@
         <v>73</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5689,13 @@
         <v>120535</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H22" s="7">
         <v>106</v>
@@ -5704,13 +5704,13 @@
         <v>114702</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M22" s="7">
         <v>223</v>
@@ -5719,13 +5719,13 @@
         <v>235237</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5793,13 @@
         <v>176731</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H24" s="7">
         <v>123</v>
@@ -5808,13 +5808,13 @@
         <v>123284</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M24" s="7">
         <v>281</v>
@@ -5823,13 +5823,13 @@
         <v>300016</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5844,13 @@
         <v>569906</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H25" s="7">
         <v>414</v>
@@ -5859,13 +5859,13 @@
         <v>425171</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>472</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M25" s="7">
         <v>949</v>
@@ -5874,13 +5874,13 @@
         <v>995078</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5895,13 @@
         <v>416570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H26" s="7">
         <v>335</v>
@@ -5910,13 +5910,13 @@
         <v>352039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M26" s="7">
         <v>723</v>
@@ -5925,13 +5925,13 @@
         <v>768610</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>481</v>
+        <v>269</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>483</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,7 +5987,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{086BC919-3508-4E0F-B9C9-25CFF4D03D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7516FF4A-91FB-4434-A1D2-A39CD67F88D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF5FFBA7-2D2C-423D-9565-BF337E9862FE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CDEDEBDA-2C96-4C6F-85D8-3DEA4DCA464F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="481">
   <si>
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2007 (Tasa respuesta: 33,65%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No he acudido/consultado al médico</t>
@@ -76,28 +76,28 @@
     <t>47,9%</t>
   </si>
   <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
   </si>
   <si>
     <t>67,8%</t>
   </si>
   <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
   </si>
   <si>
     <t>54,02%</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,1390 +106,1381 @@
     <t>34,12%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
   </si>
   <si>
     <t>32,24%</t>
   </si>
   <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
   </si>
   <si>
     <t>17,41%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
   </si>
   <si>
     <t>43,98%</t>
   </si>
   <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
   </si>
   <si>
     <t>37,24%</t>
   </si>
   <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2015 (Tasa respuesta: 29,73%)</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
+    <t>35,04%</t>
   </si>
 </sst>
 </file>
@@ -1901,7 +1892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329B9F17-CB2E-48E8-897A-EA638986B5A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FC3085-1DF9-42D2-A517-72BB0C6DECD4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2542,10 +2533,10 @@
         <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -2554,13 +2545,13 @@
         <v>45142</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -2569,13 +2560,13 @@
         <v>115380</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,7 +2622,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2643,13 +2634,13 @@
         <v>93114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -2658,13 +2649,13 @@
         <v>60844</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>150</v>
@@ -2673,13 +2664,13 @@
         <v>153958</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2685,13 @@
         <v>86145</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
@@ -2709,13 +2700,13 @@
         <v>61059</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -2724,13 +2715,13 @@
         <v>147205</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2736,13 @@
         <v>73939</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -2760,13 +2751,13 @@
         <v>48098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>117</v>
@@ -2775,13 +2766,13 @@
         <v>122037</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2828,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2840,13 @@
         <v>170385</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -2864,13 +2855,13 @@
         <v>105515</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>282</v>
@@ -2921,7 +2912,7 @@
         <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
         <v>295</v>
@@ -2930,13 +2921,13 @@
         <v>297151</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2942,13 @@
         <v>76451</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -2966,13 +2957,13 @@
         <v>59609</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>137</v>
@@ -2981,13 +2972,13 @@
         <v>136060</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3046,13 @@
         <v>599880</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>345</v>
@@ -3070,13 +3061,13 @@
         <v>348212</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>940</v>
@@ -3085,13 +3076,13 @@
         <v>948092</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3097,13 @@
         <v>511219</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>337</v>
@@ -3121,13 +3112,13 @@
         <v>346931</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>827</v>
@@ -3136,13 +3127,13 @@
         <v>858150</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3148,13 @@
         <v>272291</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>162</v>
@@ -3172,13 +3163,13 @@
         <v>167159</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>424</v>
@@ -3187,13 +3178,13 @@
         <v>439450</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,7 +3240,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B49472-5F87-4D12-8C51-D0BF712B3C3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA312DA4-A2E3-474D-8406-93D9BB898D73}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3287,7 +3278,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3394,13 +3385,13 @@
         <v>9420</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3409,13 +3400,13 @@
         <v>2032</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3424,13 +3415,13 @@
         <v>11453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3436,13 @@
         <v>25174</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3460,13 +3451,13 @@
         <v>12691</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -3475,13 +3466,13 @@
         <v>37865</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3487,13 @@
         <v>17066</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3511,13 +3502,13 @@
         <v>5295</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -3526,13 +3517,13 @@
         <v>22361</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3591,13 @@
         <v>31748</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -3615,13 +3606,13 @@
         <v>24443</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -3630,13 +3621,13 @@
         <v>56192</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3642,13 @@
         <v>101819</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H9" s="7">
         <v>66</v>
@@ -3666,13 +3657,13 @@
         <v>69255</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M9" s="7">
         <v>163</v>
@@ -3681,13 +3672,13 @@
         <v>171074</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3693,13 @@
         <v>83388</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3717,13 +3708,13 @@
         <v>47170</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -3732,13 +3723,13 @@
         <v>130558</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3797,13 @@
         <v>67303</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -3821,13 +3812,13 @@
         <v>20635</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -3836,13 +3827,13 @@
         <v>87939</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3848,13 @@
         <v>179383</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -3872,13 +3863,13 @@
         <v>156250</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M13" s="7">
         <v>308</v>
@@ -3887,13 +3878,13 @@
         <v>335633</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3899,13 @@
         <v>157781</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>103</v>
@@ -3923,13 +3914,13 @@
         <v>113462</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>247</v>
@@ -3938,13 +3929,13 @@
         <v>271243</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,7 +3991,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4012,13 +4003,13 @@
         <v>55071</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -4027,13 +4018,13 @@
         <v>44261</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -4042,13 +4033,13 @@
         <v>99332</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4054,13 @@
         <v>143243</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -4078,13 +4069,13 @@
         <v>101934</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>222</v>
@@ -4093,13 +4084,13 @@
         <v>245177</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4105,13 @@
         <v>112360</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>73</v>
@@ -4129,13 +4120,13 @@
         <v>83701</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>173</v>
@@ -4144,13 +4135,13 @@
         <v>196061</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>282</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,7 +4197,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4218,13 +4209,13 @@
         <v>72234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -4233,13 +4224,13 @@
         <v>46907</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -4248,13 +4239,13 @@
         <v>119141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>289</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4260,13 @@
         <v>174921</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H21" s="7">
         <v>130</v>
@@ -4284,13 +4275,13 @@
         <v>135645</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M21" s="7">
         <v>303</v>
@@ -4299,13 +4290,13 @@
         <v>310565</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4311,13 @@
         <v>114354</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -4335,13 +4326,13 @@
         <v>110667</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M22" s="7">
         <v>209</v>
@@ -4350,13 +4341,13 @@
         <v>225021</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4415,13 @@
         <v>235777</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H24" s="7">
         <v>128</v>
@@ -4439,13 +4430,13 @@
         <v>138279</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>353</v>
@@ -4454,13 +4445,13 @@
         <v>374056</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4466,13 @@
         <v>624540</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H25" s="7">
         <v>441</v>
@@ -4490,13 +4481,13 @@
         <v>475773</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M25" s="7">
         <v>1032</v>
@@ -4505,13 +4496,13 @@
         <v>1100313</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4517,13 @@
         <v>484949</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H26" s="7">
         <v>327</v>
@@ -4541,13 +4532,13 @@
         <v>360295</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M26" s="7">
         <v>772</v>
@@ -4556,13 +4547,13 @@
         <v>845243</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,7 +4595,7 @@
         <v>2157</v>
       </c>
       <c r="N27" s="7">
-        <v>2319612</v>
+        <v>2319613</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -4618,7 +4609,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4639,7 +4630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445812B7-D753-4533-8F19-75A187BC9EF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CF6445-E071-45B9-AC38-DC70A3660939}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4656,7 +4647,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4763,13 +4754,13 @@
         <v>5631</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4778,13 +4769,13 @@
         <v>1710</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4793,13 +4784,13 @@
         <v>7341</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4805,13 @@
         <v>20019</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>212</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4829,13 +4820,13 @@
         <v>13902</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -4844,13 +4835,13 @@
         <v>33921</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4856,13 @@
         <v>24250</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>353</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -4880,13 +4871,13 @@
         <v>14519</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -4895,13 +4886,13 @@
         <v>38770</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4960,13 @@
         <v>27489</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>197</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4984,13 +4975,13 @@
         <v>16552</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -4999,13 +4990,13 @@
         <v>44041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5011,13 @@
         <v>116395</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -5035,13 +5026,13 @@
         <v>75406</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M9" s="7">
         <v>186</v>
@@ -5050,13 +5041,13 @@
         <v>191801</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5062,13 @@
         <v>54823</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5086,13 +5077,13 @@
         <v>41073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -5101,13 +5092,13 @@
         <v>95896</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5166,13 @@
         <v>41291</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -5190,13 +5181,13 @@
         <v>27497</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>91</v>
+        <v>387</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -5205,13 +5196,13 @@
         <v>68788</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5217,13 @@
         <v>169327</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -5241,13 +5232,13 @@
         <v>127720</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>278</v>
@@ -5256,13 +5247,13 @@
         <v>297047</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5268,13 @@
         <v>116960</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -5292,13 +5283,13 @@
         <v>104443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>204</v>
@@ -5307,13 +5298,13 @@
         <v>221403</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,7 +5360,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5381,13 +5372,13 @@
         <v>51413</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -5396,13 +5387,13 @@
         <v>34970</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -5411,13 +5402,13 @@
         <v>86382</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,28 +5423,28 @@
         <v>155628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
       </c>
       <c r="I17" s="7">
-        <v>109970</v>
+        <v>109971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>244</v>
@@ -5462,13 +5453,13 @@
         <v>265599</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5474,13 @@
         <v>100001</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -5498,13 +5489,13 @@
         <v>77303</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M18" s="7">
         <v>166</v>
@@ -5513,7 +5504,7 @@
         <v>177305</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>326</v>
+        <v>432</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>433</v>
@@ -5546,7 +5537,7 @@
         <v>215</v>
       </c>
       <c r="I19" s="7">
-        <v>222243</v>
+        <v>222244</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5575,7 +5566,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5602,13 +5593,13 @@
         <v>42555</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>89</v>
@@ -5617,13 +5608,13 @@
         <v>93462</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5629,13 @@
         <v>108537</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H21" s="7">
         <v>96</v>
@@ -5653,13 +5644,13 @@
         <v>98174</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M21" s="7">
         <v>208</v>
@@ -5671,10 +5662,10 @@
         <v>73</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>449</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5680,13 @@
         <v>120535</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H22" s="7">
         <v>106</v>
@@ -5704,13 +5695,13 @@
         <v>114702</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M22" s="7">
         <v>223</v>
@@ -5719,13 +5710,13 @@
         <v>235237</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5784,13 @@
         <v>176731</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>460</v>
+        <v>261</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H24" s="7">
         <v>123</v>
@@ -5808,13 +5799,13 @@
         <v>123284</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M24" s="7">
         <v>281</v>
@@ -5823,13 +5814,13 @@
         <v>300016</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>394</v>
+        <v>463</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5835,13 @@
         <v>569906</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>468</v>
+        <v>49</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H25" s="7">
         <v>414</v>
@@ -5859,13 +5850,13 @@
         <v>425171</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M25" s="7">
         <v>949</v>
@@ -5874,13 +5865,13 @@
         <v>995078</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>474</v>
+        <v>368</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5886,13 @@
         <v>416570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H26" s="7">
         <v>335</v>
@@ -5910,13 +5901,13 @@
         <v>352039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M26" s="7">
         <v>723</v>
@@ -5925,13 +5916,13 @@
         <v>768610</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>269</v>
+        <v>479</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,7 +5978,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7516FF4A-91FB-4434-A1D2-A39CD67F88D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75C25E6F-E064-4D66-96AE-D69E7078E888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CDEDEBDA-2C96-4C6F-85D8-3DEA4DCA464F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2377B05F-E7DE-455A-9023-7663CEE0499B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="484">
   <si>
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2007 (Tasa respuesta: 33,65%)</t>
   </si>
@@ -76,1411 +76,1420 @@
     <t>47,9%</t>
   </si>
   <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
   </si>
   <si>
     <t>67,8%</t>
   </si>
   <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
     <t>43,31%</t>
   </si>
   <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
   </si>
   <si>
     <t>48,99%</t>
   </si>
   <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
   </si>
   <si>
     <t>48,22%</t>
   </si>
   <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
   </si>
   <si>
     <t>39,09%</t>
   </si>
   <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
   </si>
   <si>
     <t>37,24%</t>
   </si>
   <si>
-    <t>35,04%</t>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FC3085-1DF9-42D2-A517-72BB0C6DECD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08839073-5EB5-4673-8278-B527EB9481A4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2861,7 +2870,7 @@
         <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>282</v>
@@ -2870,13 +2879,13 @@
         <v>275900</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2900,13 @@
         <v>158909</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>132</v>
@@ -2906,13 +2915,13 @@
         <v>138242</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>295</v>
@@ -2921,13 +2930,13 @@
         <v>297151</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2951,13 @@
         <v>76451</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -2957,13 +2966,13 @@
         <v>59609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>137</v>
@@ -3061,13 +3070,13 @@
         <v>348212</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>940</v>
@@ -3076,13 +3085,13 @@
         <v>948092</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3106,13 @@
         <v>511219</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>337</v>
@@ -3112,13 +3121,13 @@
         <v>346931</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>827</v>
@@ -3127,13 +3136,13 @@
         <v>858150</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3157,13 @@
         <v>272291</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>162</v>
@@ -3163,13 +3172,13 @@
         <v>167159</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>424</v>
@@ -3178,13 +3187,13 @@
         <v>439450</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,7 +3249,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3261,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA312DA4-A2E3-474D-8406-93D9BB898D73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CB1836-6E34-4B00-8AEF-3912BA60B650}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3278,7 +3287,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3385,13 +3394,13 @@
         <v>9420</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3400,13 +3409,13 @@
         <v>2032</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3415,13 +3424,13 @@
         <v>11453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3445,13 @@
         <v>25174</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3451,13 +3460,13 @@
         <v>12691</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -3466,13 +3475,13 @@
         <v>37865</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3496,13 @@
         <v>17066</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3502,13 +3511,13 @@
         <v>5295</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -3517,13 +3526,13 @@
         <v>22361</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3600,13 @@
         <v>31748</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -3627,7 +3636,7 @@
         <v>209</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3651,13 @@
         <v>101819</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H9" s="7">
         <v>66</v>
@@ -3657,13 +3666,13 @@
         <v>69255</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M9" s="7">
         <v>163</v>
@@ -3672,13 +3681,13 @@
         <v>171074</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3702,13 @@
         <v>83388</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3708,13 +3717,13 @@
         <v>47170</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -3723,13 +3732,13 @@
         <v>130558</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3806,13 @@
         <v>67303</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -3812,13 +3821,13 @@
         <v>20635</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -3827,10 +3836,10 @@
         <v>87939</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>236</v>
@@ -4018,13 +4027,13 @@
         <v>44261</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -4033,13 +4042,13 @@
         <v>99332</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4063,13 @@
         <v>143243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -4069,13 +4078,13 @@
         <v>101934</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>222</v>
@@ -4084,13 +4093,13 @@
         <v>245177</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,10 +4114,10 @@
         <v>112360</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>273</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>274</v>
@@ -4141,7 +4150,7 @@
         <v>279</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4218,13 @@
         <v>72234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -4224,13 +4233,13 @@
         <v>46907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -4239,13 +4248,13 @@
         <v>119141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4269,13 @@
         <v>174921</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
         <v>130</v>
@@ -4275,13 +4284,13 @@
         <v>135645</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M21" s="7">
         <v>303</v>
@@ -4290,13 +4299,13 @@
         <v>310565</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4320,13 @@
         <v>114354</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -4326,13 +4335,13 @@
         <v>110667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>209</v>
@@ -4341,13 +4350,13 @@
         <v>225021</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4424,13 @@
         <v>235777</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H24" s="7">
         <v>128</v>
@@ -4430,13 +4439,13 @@
         <v>138279</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M24" s="7">
         <v>353</v>
@@ -4445,13 +4454,13 @@
         <v>374056</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4475,13 @@
         <v>624540</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H25" s="7">
         <v>441</v>
@@ -4481,13 +4490,13 @@
         <v>475773</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M25" s="7">
         <v>1032</v>
@@ -4496,13 +4505,13 @@
         <v>1100313</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4526,13 @@
         <v>484949</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H26" s="7">
         <v>327</v>
@@ -4532,13 +4541,13 @@
         <v>360295</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M26" s="7">
         <v>772</v>
@@ -4547,13 +4556,13 @@
         <v>845243</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,7 +4604,7 @@
         <v>2157</v>
       </c>
       <c r="N27" s="7">
-        <v>2319613</v>
+        <v>2319612</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -4609,7 +4618,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4630,7 +4639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CF6445-E071-45B9-AC38-DC70A3660939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7448912C-67D7-4B8B-9136-A31A5BF41375}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4647,7 +4656,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4754,13 +4763,13 @@
         <v>5631</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4769,13 +4778,13 @@
         <v>1710</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4784,13 +4793,13 @@
         <v>7341</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4814,13 @@
         <v>20019</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4820,13 +4829,13 @@
         <v>13902</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -4835,13 +4844,13 @@
         <v>33921</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4865,13 @@
         <v>24250</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>353</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -4871,13 +4880,13 @@
         <v>14519</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -4886,13 +4895,13 @@
         <v>38770</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +4969,13 @@
         <v>27489</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>197</v>
+        <v>362</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4975,13 +4984,13 @@
         <v>16552</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -4990,13 +4999,13 @@
         <v>44041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5020,13 @@
         <v>116395</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -5026,13 +5035,13 @@
         <v>75406</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M9" s="7">
         <v>186</v>
@@ -5041,13 +5050,13 @@
         <v>191801</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5071,13 @@
         <v>54823</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5077,13 +5086,13 @@
         <v>41073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -5092,13 +5101,13 @@
         <v>95896</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5175,13 @@
         <v>41291</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -5181,13 +5190,13 @@
         <v>27497</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -5196,13 +5205,13 @@
         <v>68788</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5226,13 @@
         <v>169327</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -5232,13 +5241,13 @@
         <v>127720</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M13" s="7">
         <v>278</v>
@@ -5247,13 +5256,13 @@
         <v>297047</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5277,13 @@
         <v>116960</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -5283,13 +5292,13 @@
         <v>104443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M14" s="7">
         <v>204</v>
@@ -5298,13 +5307,13 @@
         <v>221403</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5381,13 @@
         <v>51413</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>229</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -5387,13 +5396,13 @@
         <v>34970</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -5402,13 +5411,13 @@
         <v>86382</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,28 +5432,28 @@
         <v>155628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
       </c>
       <c r="I17" s="7">
-        <v>109971</v>
+        <v>109970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>244</v>
@@ -5453,13 +5462,13 @@
         <v>265599</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5483,13 @@
         <v>100001</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>428</v>
+        <v>52</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>429</v>
+        <v>164</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -5537,7 +5546,7 @@
         <v>215</v>
       </c>
       <c r="I19" s="7">
-        <v>222244</v>
+        <v>222243</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5593,13 +5602,13 @@
         <v>42555</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>169</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>89</v>
@@ -5608,13 +5617,13 @@
         <v>93462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,13 +5638,13 @@
         <v>108537</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>445</v>
+        <v>270</v>
       </c>
       <c r="H21" s="7">
         <v>96</v>
@@ -5644,10 +5653,10 @@
         <v>98174</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>305</v>
+        <v>446</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>446</v>
+        <v>302</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>447</v>
@@ -5662,10 +5671,10 @@
         <v>73</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>83</v>
+        <v>448</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5689,13 @@
         <v>120535</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>106</v>
@@ -5695,13 +5704,13 @@
         <v>114702</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>223</v>
@@ -5710,13 +5719,13 @@
         <v>235237</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,13 +5793,13 @@
         <v>176731</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>261</v>
+        <v>459</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H24" s="7">
         <v>123</v>
@@ -5799,13 +5808,13 @@
         <v>123284</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M24" s="7">
         <v>281</v>
@@ -5814,13 +5823,13 @@
         <v>300016</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>463</v>
+        <v>395</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5844,13 @@
         <v>569906</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>49</v>
+        <v>467</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H25" s="7">
         <v>414</v>
@@ -5850,13 +5859,13 @@
         <v>425171</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>469</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M25" s="7">
         <v>949</v>
@@ -5865,13 +5874,13 @@
         <v>995078</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>368</v>
+        <v>472</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5895,13 @@
         <v>416570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H26" s="7">
         <v>335</v>
@@ -5901,13 +5910,13 @@
         <v>352039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M26" s="7">
         <v>723</v>
@@ -5916,13 +5925,13 @@
         <v>768610</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>264</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,7 +5987,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75C25E6F-E064-4D66-96AE-D69E7078E888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF5A7906-1A9B-4480-91D9-87081C6589EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2377B05F-E7DE-455A-9023-7663CEE0499B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EA1B43AC-BD3D-40E5-B7E7-906F7982A383}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="402">
   <si>
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2007 (Tasa respuesta: 33,65%)</t>
   </si>
@@ -67,1269 +67,1029 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No he acudido/consultado al médico</t>
   </si>
   <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
   </si>
   <si>
     <t>54,02%</t>
   </si>
   <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
     <t>28,28%</t>
   </si>
   <si>
@@ -1462,13 +1222,7 @@
     <t>46,08%</t>
   </si>
   <si>
-    <t>50,4%</t>
-  </si>
-  <si>
     <t>35,81%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
   </si>
   <si>
     <t>38,6%</t>
@@ -1901,8 +1655,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08839073-5EB5-4673-8278-B527EB9481A4}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF42C4B-F64B-42FF-9861-FAA911276CCB}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2019,10 +1773,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="D4" s="7">
-        <v>22308</v>
+        <v>162432</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2034,10 +1788,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I4" s="7">
-        <v>14033</v>
+        <v>94151</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2049,10 +1803,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="N4" s="7">
-        <v>36341</v>
+        <v>256583</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2070,10 +1824,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D5" s="7">
-        <v>15891</v>
+        <v>105186</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2085,10 +1839,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="I5" s="7">
-        <v>5795</v>
+        <v>53338</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2100,10 +1854,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="N5" s="7">
-        <v>21686</v>
+        <v>158524</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2121,10 +1875,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>8372</v>
+        <v>51664</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2136,10 +1890,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>870</v>
+        <v>14310</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2151,10 +1905,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="N6" s="7">
-        <v>9242</v>
+        <v>65974</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2172,10 +1926,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="D7" s="7">
-        <v>46571</v>
+        <v>319281</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2187,10 +1941,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="I7" s="7">
-        <v>20698</v>
+        <v>161799</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2202,10 +1956,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>66</v>
+        <v>472</v>
       </c>
       <c r="N7" s="7">
-        <v>67269</v>
+        <v>481080</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2225,10 +1979,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="D8" s="7">
-        <v>140124</v>
+        <v>173949</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2240,10 +1994,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I8" s="7">
-        <v>80118</v>
+        <v>87702</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2255,10 +2009,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="N8" s="7">
-        <v>220242</v>
+        <v>261652</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2276,10 +2030,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="D9" s="7">
-        <v>89294</v>
+        <v>160979</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2291,10 +2045,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="I9" s="7">
-        <v>47543</v>
+        <v>94291</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2306,10 +2060,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="N9" s="7">
-        <v>136837</v>
+        <v>255271</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2327,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>43292</v>
+        <v>70237</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2342,10 +2096,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>13440</v>
+        <v>45142</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2357,10 +2111,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="N10" s="7">
-        <v>56732</v>
+        <v>115380</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2378,10 +2132,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>267</v>
+        <v>377</v>
       </c>
       <c r="D11" s="7">
-        <v>272710</v>
+        <v>405166</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2393,10 +2147,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="I11" s="7">
-        <v>141101</v>
+        <v>227136</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2408,10 +2162,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>406</v>
+        <v>592</v>
       </c>
       <c r="N11" s="7">
-        <v>413811</v>
+        <v>632302</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2431,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="D12" s="7">
-        <v>173949</v>
+        <v>93114</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2446,10 +2200,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>87702</v>
+        <v>60844</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2461,10 +2215,10 @@
         <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="N12" s="7">
-        <v>261652</v>
+        <v>153958</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -2482,10 +2236,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="D13" s="7">
-        <v>160979</v>
+        <v>86145</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2497,10 +2251,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>94291</v>
+        <v>61059</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2512,10 +2266,10 @@
         <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="N13" s="7">
-        <v>255271</v>
+        <v>147205</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2533,10 +2287,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="7">
-        <v>70237</v>
+        <v>73939</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2548,10 +2302,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7">
-        <v>45142</v>
+        <v>48098</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2563,10 +2317,10 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="N14" s="7">
-        <v>115380</v>
+        <v>122037</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -2584,10 +2338,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>377</v>
+        <v>237</v>
       </c>
       <c r="D15" s="7">
-        <v>405166</v>
+        <v>253198</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2599,10 +2353,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="I15" s="7">
-        <v>227136</v>
+        <v>170001</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2614,10 +2368,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>592</v>
+        <v>413</v>
       </c>
       <c r="N15" s="7">
-        <v>632302</v>
+        <v>423199</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2637,10 +2391,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="D16" s="7">
-        <v>93114</v>
+        <v>170385</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -2652,34 +2406,34 @@
         <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="I16" s="7">
-        <v>60844</v>
+        <v>105515</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>282</v>
+      </c>
+      <c r="N16" s="7">
+        <v>275900</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M16" s="7">
-        <v>150</v>
-      </c>
-      <c r="N16" s="7">
-        <v>153958</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,49 +2442,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="D17" s="7">
-        <v>86145</v>
+        <v>158909</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>132</v>
+      </c>
+      <c r="I17" s="7">
+        <v>138242</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="7">
-        <v>64</v>
-      </c>
-      <c r="I17" s="7">
-        <v>61059</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>295</v>
+      </c>
+      <c r="N17" s="7">
+        <v>297151</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="7">
-        <v>146</v>
-      </c>
-      <c r="N17" s="7">
-        <v>147205</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,49 +2493,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D18" s="7">
-        <v>73939</v>
+        <v>76451</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>57</v>
+      </c>
+      <c r="I18" s="7">
+        <v>59609</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="7">
-        <v>49</v>
-      </c>
-      <c r="I18" s="7">
-        <v>48098</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" s="7">
+        <v>137</v>
+      </c>
+      <c r="N18" s="7">
+        <v>136060</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="M18" s="7">
-        <v>117</v>
-      </c>
-      <c r="N18" s="7">
-        <v>122037</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,10 +2544,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>237</v>
+        <v>423</v>
       </c>
       <c r="D19" s="7">
-        <v>253198</v>
+        <v>405745</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2805,10 +2559,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="I19" s="7">
-        <v>170001</v>
+        <v>303366</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2820,10 +2574,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>413</v>
+        <v>714</v>
       </c>
       <c r="N19" s="7">
-        <v>423199</v>
+        <v>709111</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2837,55 +2591,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>180</v>
+        <v>595</v>
       </c>
       <c r="D20" s="7">
-        <v>170385</v>
+        <v>599880</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="7">
+        <v>345</v>
+      </c>
+      <c r="I20" s="7">
+        <v>348212</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>940</v>
+      </c>
+      <c r="N20" s="7">
+        <v>948092</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="7">
-        <v>102</v>
-      </c>
-      <c r="I20" s="7">
-        <v>105515</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="M20" s="7">
-        <v>282</v>
-      </c>
-      <c r="N20" s="7">
-        <v>275900</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,49 +2648,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>163</v>
+        <v>490</v>
       </c>
       <c r="D21" s="7">
-        <v>158909</v>
+        <v>511218</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="7">
+        <v>337</v>
+      </c>
+      <c r="I21" s="7">
+        <v>346931</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="K21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>827</v>
+      </c>
+      <c r="N21" s="7">
+        <v>858150</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="7">
-        <v>132</v>
-      </c>
-      <c r="I21" s="7">
-        <v>138242</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M21" s="7">
-        <v>295</v>
-      </c>
-      <c r="N21" s="7">
-        <v>297151</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,49 +2699,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="D22" s="7">
-        <v>76451</v>
+        <v>272291</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="7">
+        <v>162</v>
+      </c>
+      <c r="I22" s="7">
+        <v>167159</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>424</v>
+      </c>
+      <c r="N22" s="7">
+        <v>439450</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="7">
-        <v>57</v>
-      </c>
-      <c r="I22" s="7">
-        <v>59609</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M22" s="7">
-        <v>137</v>
-      </c>
-      <c r="N22" s="7">
-        <v>136060</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,10 +2750,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>423</v>
+        <v>1347</v>
       </c>
       <c r="D23" s="7">
-        <v>405745</v>
+        <v>1383389</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3011,10 +2765,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>291</v>
+        <v>844</v>
       </c>
       <c r="I23" s="7">
-        <v>303366</v>
+        <v>862302</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3026,10 +2780,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>714</v>
+        <v>2191</v>
       </c>
       <c r="N23" s="7">
-        <v>709111</v>
+        <v>2245692</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3042,222 +2796,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>595</v>
-      </c>
-      <c r="D24" s="7">
-        <v>599880</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="7">
-        <v>345</v>
-      </c>
-      <c r="I24" s="7">
-        <v>348212</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M24" s="7">
-        <v>940</v>
-      </c>
-      <c r="N24" s="7">
-        <v>948092</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>490</v>
-      </c>
-      <c r="D25" s="7">
-        <v>511219</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="7">
-        <v>337</v>
-      </c>
-      <c r="I25" s="7">
-        <v>346931</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M25" s="7">
-        <v>827</v>
-      </c>
-      <c r="N25" s="7">
-        <v>858150</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>262</v>
-      </c>
-      <c r="D26" s="7">
-        <v>272291</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" s="7">
-        <v>162</v>
-      </c>
-      <c r="I26" s="7">
-        <v>167159</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M26" s="7">
-        <v>424</v>
-      </c>
-      <c r="N26" s="7">
-        <v>439450</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1347</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1383390</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>844</v>
-      </c>
-      <c r="I27" s="7">
-        <v>862302</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2191</v>
-      </c>
-      <c r="N27" s="7">
-        <v>2245692</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>175</v>
+      <c r="A24" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3270,8 +2817,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CB1836-6E34-4B00-8AEF-3912BA60B650}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8B65DD-649D-4501-A291-5E092A7C6A65}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3287,7 +2834,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3388,49 +2935,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7">
-        <v>9420</v>
+        <v>41169</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>2032</v>
+        <v>26476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="N4" s="7">
-        <v>11453</v>
+        <v>67644</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,49 +2986,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>123</v>
+      </c>
+      <c r="D5" s="7">
+        <v>126993</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7">
-        <v>25174</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="I5" s="7">
-        <v>12691</v>
+        <v>81945</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="M5" s="7">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="N5" s="7">
-        <v>37865</v>
+        <v>208939</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,49 +3037,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D6" s="7">
-        <v>17066</v>
+        <v>100454</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I6" s="7">
-        <v>5295</v>
+        <v>52465</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="M6" s="7">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="N6" s="7">
-        <v>22361</v>
+        <v>152919</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,10 +3088,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="D7" s="7">
-        <v>51660</v>
+        <v>268616</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3556,10 +3103,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="I7" s="7">
-        <v>20018</v>
+        <v>160886</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3571,10 +3118,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>69</v>
+        <v>406</v>
       </c>
       <c r="N7" s="7">
-        <v>71678</v>
+        <v>429502</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3594,49 +3141,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7">
-        <v>31748</v>
+        <v>67303</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7">
-        <v>24443</v>
+        <v>20635</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="N8" s="7">
-        <v>56192</v>
+        <v>87939</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,49 +3192,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="D9" s="7">
-        <v>101819</v>
+        <v>179383</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="H9" s="7">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="I9" s="7">
-        <v>69255</v>
+        <v>156250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="M9" s="7">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="N9" s="7">
-        <v>171074</v>
+        <v>335633</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,49 +3243,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="D10" s="7">
-        <v>83388</v>
+        <v>157781</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="I10" s="7">
-        <v>47170</v>
+        <v>113462</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c r="N10" s="7">
-        <v>130558</v>
+        <v>271243</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,10 +3294,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>207</v>
+        <v>370</v>
       </c>
       <c r="D11" s="7">
-        <v>216956</v>
+        <v>404467</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3762,10 +3309,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="I11" s="7">
-        <v>140868</v>
+        <v>290347</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3777,10 +3324,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>337</v>
+        <v>635</v>
       </c>
       <c r="N11" s="7">
-        <v>357824</v>
+        <v>694814</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3800,49 +3347,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D12" s="7">
-        <v>67303</v>
+        <v>55071</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="H12" s="7">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>20635</v>
+        <v>44261</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="M12" s="7">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="N12" s="7">
-        <v>87939</v>
+        <v>99332</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,49 +3398,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="D13" s="7">
-        <v>179383</v>
+        <v>143243</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="I13" s="7">
-        <v>156250</v>
+        <v>101934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
-        <v>308</v>
+        <v>222</v>
       </c>
       <c r="N13" s="7">
-        <v>335633</v>
+        <v>245177</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,49 +3449,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="D14" s="7">
-        <v>157781</v>
+        <v>112360</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="I14" s="7">
-        <v>113462</v>
+        <v>83701</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="N14" s="7">
-        <v>271243</v>
+        <v>196061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,10 +3500,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="D15" s="7">
-        <v>404467</v>
+        <v>310674</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3968,10 +3515,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="I15" s="7">
-        <v>290347</v>
+        <v>229896</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3983,10 +3530,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>635</v>
+        <v>488</v>
       </c>
       <c r="N15" s="7">
-        <v>694814</v>
+        <v>540570</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4006,49 +3553,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7">
-        <v>55071</v>
+        <v>72234</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I16" s="7">
-        <v>44261</v>
+        <v>46907</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="N16" s="7">
-        <v>99332</v>
+        <v>119141</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,49 +3604,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>173</v>
+      </c>
+      <c r="D17" s="7">
+        <v>174921</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="7">
         <v>130</v>
       </c>
-      <c r="D17" s="7">
-        <v>143243</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="7">
-        <v>92</v>
-      </c>
       <c r="I17" s="7">
-        <v>101934</v>
+        <v>135645</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
-        <v>222</v>
+        <v>303</v>
       </c>
       <c r="N17" s="7">
-        <v>245177</v>
+        <v>310565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,49 +3655,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D18" s="7">
-        <v>112360</v>
+        <v>114354</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="H18" s="7">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="I18" s="7">
-        <v>83701</v>
+        <v>110667</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="M18" s="7">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="N18" s="7">
-        <v>196061</v>
+        <v>225021</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,10 +3706,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>282</v>
+        <v>350</v>
       </c>
       <c r="D19" s="7">
-        <v>310674</v>
+        <v>361509</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4174,10 +3721,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="I19" s="7">
-        <v>229896</v>
+        <v>293218</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4189,10 +3736,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>488</v>
+        <v>628</v>
       </c>
       <c r="N19" s="7">
-        <v>540570</v>
+        <v>654727</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4206,55 +3753,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="D20" s="7">
-        <v>72234</v>
+        <v>235777</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="I20" s="7">
-        <v>46907</v>
+        <v>138279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="M20" s="7">
-        <v>116</v>
+        <v>353</v>
       </c>
       <c r="N20" s="7">
-        <v>119141</v>
+        <v>374056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,49 +3810,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>173</v>
+        <v>591</v>
       </c>
       <c r="D21" s="7">
-        <v>174921</v>
+        <v>624540</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="H21" s="7">
-        <v>130</v>
+        <v>441</v>
       </c>
       <c r="I21" s="7">
-        <v>135645</v>
+        <v>475773</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="M21" s="7">
-        <v>303</v>
+        <v>1032</v>
       </c>
       <c r="N21" s="7">
-        <v>310565</v>
+        <v>1100313</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,49 +3861,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>106</v>
+        <v>445</v>
       </c>
       <c r="D22" s="7">
-        <v>114354</v>
+        <v>484949</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7">
-        <v>103</v>
+        <v>327</v>
       </c>
       <c r="I22" s="7">
-        <v>110667</v>
+        <v>360295</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
-        <v>209</v>
+        <v>772</v>
       </c>
       <c r="N22" s="7">
-        <v>225021</v>
+        <v>845243</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,10 +3912,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>350</v>
+        <v>1261</v>
       </c>
       <c r="D23" s="7">
-        <v>361509</v>
+        <v>1345266</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4380,10 +3927,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>278</v>
+        <v>896</v>
       </c>
       <c r="I23" s="7">
-        <v>293218</v>
+        <v>974347</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4395,10 +3942,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>628</v>
+        <v>2157</v>
       </c>
       <c r="N23" s="7">
-        <v>654727</v>
+        <v>2319613</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4411,222 +3958,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>225</v>
-      </c>
-      <c r="D24" s="7">
-        <v>235777</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H24" s="7">
-        <v>128</v>
-      </c>
-      <c r="I24" s="7">
-        <v>138279</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M24" s="7">
-        <v>353</v>
-      </c>
-      <c r="N24" s="7">
-        <v>374056</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>591</v>
-      </c>
-      <c r="D25" s="7">
-        <v>624540</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H25" s="7">
-        <v>441</v>
-      </c>
-      <c r="I25" s="7">
-        <v>475773</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1032</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1100313</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>445</v>
-      </c>
-      <c r="D26" s="7">
-        <v>484949</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H26" s="7">
-        <v>327</v>
-      </c>
-      <c r="I26" s="7">
-        <v>360295</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M26" s="7">
-        <v>772</v>
-      </c>
-      <c r="N26" s="7">
-        <v>845243</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1261</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1345266</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>896</v>
-      </c>
-      <c r="I27" s="7">
-        <v>974347</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2157</v>
-      </c>
-      <c r="N27" s="7">
-        <v>2319612</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>175</v>
+      <c r="A24" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4639,8 +3979,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7448912C-67D7-4B8B-9136-A31A5BF41375}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15229E6B-322C-49D4-8C8D-B557F8B99EF7}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4656,7 +3996,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4757,49 +4097,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>5631</v>
+        <v>33121</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>1710</v>
+        <v>18262</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="N4" s="7">
-        <v>7341</v>
+        <v>51382</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,49 +4148,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="D5" s="7">
-        <v>20019</v>
+        <v>136414</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="I5" s="7">
-        <v>13902</v>
+        <v>89307</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="N5" s="7">
-        <v>33921</v>
+        <v>225721</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,49 +4199,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D6" s="7">
-        <v>24250</v>
+        <v>79073</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7">
-        <v>14519</v>
+        <v>55592</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="M6" s="7">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="N6" s="7">
-        <v>38770</v>
+        <v>134665</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,10 +4250,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="D7" s="7">
-        <v>49901</v>
+        <v>248608</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4925,10 +4265,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="I7" s="7">
-        <v>30131</v>
+        <v>163161</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4940,10 +4280,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="N7" s="7">
-        <v>80032</v>
+        <v>411768</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4963,49 +4303,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>27489</v>
+        <v>41291</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>16552</v>
+        <v>27497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="N8" s="7">
-        <v>44041</v>
+        <v>68788</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,49 +4354,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="D9" s="7">
-        <v>116395</v>
+        <v>169327</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>370</v>
+        <v>316</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
       <c r="H9" s="7">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I9" s="7">
-        <v>75406</v>
+        <v>127720</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
       <c r="M9" s="7">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="N9" s="7">
-        <v>191801</v>
+        <v>297047</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,49 +4405,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="D10" s="7">
-        <v>54823</v>
+        <v>116960</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="I10" s="7">
-        <v>41073</v>
+        <v>104443</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="N10" s="7">
-        <v>95896</v>
+        <v>221403</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,10 +4456,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="D11" s="7">
-        <v>198707</v>
+        <v>327578</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5131,10 +4471,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="I11" s="7">
-        <v>133030</v>
+        <v>259660</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5146,10 +4486,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>322</v>
+        <v>546</v>
       </c>
       <c r="N11" s="7">
-        <v>331737</v>
+        <v>587238</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5169,49 +4509,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7">
-        <v>41291</v>
+        <v>51413</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>388</v>
+        <v>175</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="H12" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I12" s="7">
-        <v>27497</v>
+        <v>34970</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>392</v>
+        <v>234</v>
       </c>
       <c r="M12" s="7">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="N12" s="7">
-        <v>68788</v>
+        <v>86382</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>393</v>
+        <v>120</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>395</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,49 +4560,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D13" s="7">
-        <v>169327</v>
+        <v>155628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="I13" s="7">
-        <v>127720</v>
+        <v>109970</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="N13" s="7">
-        <v>297047</v>
+        <v>265599</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,49 +4611,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D14" s="7">
-        <v>116960</v>
+        <v>100001</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>407</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I14" s="7">
-        <v>104443</v>
+        <v>77303</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>408</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>410</v>
+        <v>351</v>
       </c>
       <c r="M14" s="7">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="N14" s="7">
-        <v>221403</v>
+        <v>177305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>353</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,10 +4662,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>327578</v>
+        <v>307042</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5337,10 +4677,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="I15" s="7">
-        <v>259660</v>
+        <v>222243</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5352,10 +4692,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>546</v>
+        <v>489</v>
       </c>
       <c r="N15" s="7">
-        <v>587238</v>
+        <v>529286</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5375,49 +4715,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7">
-        <v>51413</v>
+        <v>50907</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>229</v>
+        <v>356</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I16" s="7">
-        <v>34970</v>
+        <v>42555</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
       <c r="M16" s="7">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="N16" s="7">
-        <v>86382</v>
+        <v>93462</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>361</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,49 +4766,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D17" s="7">
-        <v>155628</v>
+        <v>108537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I17" s="7">
-        <v>109970</v>
+        <v>98174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="N17" s="7">
-        <v>265599</v>
+        <v>206710</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,49 +4817,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="D18" s="7">
-        <v>100001</v>
+        <v>120535</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>164</v>
+        <v>372</v>
       </c>
       <c r="H18" s="7">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="I18" s="7">
-        <v>77303</v>
+        <v>114702</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>373</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="M18" s="7">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="N18" s="7">
-        <v>177305</v>
+        <v>235237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,10 +4868,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D19" s="7">
-        <v>307042</v>
+        <v>279979</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5543,10 +4883,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="I19" s="7">
-        <v>222243</v>
+        <v>255431</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5558,10 +4898,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="N19" s="7">
-        <v>529286</v>
+        <v>535410</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5575,55 +4915,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="D20" s="7">
-        <v>50907</v>
+        <v>176731</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="H20" s="7">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="I20" s="7">
-        <v>42555</v>
+        <v>123284</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>383</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="M20" s="7">
-        <v>89</v>
+        <v>281</v>
       </c>
       <c r="N20" s="7">
-        <v>93462</v>
+        <v>300016</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>441</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,49 +4972,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>112</v>
+        <v>535</v>
       </c>
       <c r="D21" s="7">
-        <v>108537</v>
+        <v>569906</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>445</v>
+        <v>388</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="H21" s="7">
-        <v>96</v>
+        <v>414</v>
       </c>
       <c r="I21" s="7">
-        <v>98174</v>
+        <v>425171</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>446</v>
+        <v>390</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>302</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="M21" s="7">
-        <v>208</v>
+        <v>949</v>
       </c>
       <c r="N21" s="7">
-        <v>206710</v>
+        <v>995078</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>73</v>
+        <v>392</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>449</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,49 +5023,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>117</v>
+        <v>388</v>
       </c>
       <c r="D22" s="7">
-        <v>120535</v>
+        <v>416570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>394</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>168</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
       <c r="H22" s="7">
-        <v>106</v>
+        <v>335</v>
       </c>
       <c r="I22" s="7">
-        <v>114702</v>
+        <v>352039</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="M22" s="7">
-        <v>223</v>
+        <v>723</v>
       </c>
       <c r="N22" s="7">
-        <v>235237</v>
+        <v>768610</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,10 +5074,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>276</v>
+        <v>1081</v>
       </c>
       <c r="D23" s="7">
-        <v>279979</v>
+        <v>1163207</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -5749,10 +5089,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>244</v>
+        <v>872</v>
       </c>
       <c r="I23" s="7">
-        <v>255431</v>
+        <v>900495</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5764,10 +5104,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>520</v>
+        <v>1953</v>
       </c>
       <c r="N23" s="7">
-        <v>535410</v>
+        <v>2063703</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -5780,222 +5120,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>158</v>
-      </c>
-      <c r="D24" s="7">
-        <v>176731</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="H24" s="7">
-        <v>123</v>
-      </c>
-      <c r="I24" s="7">
-        <v>123284</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="M24" s="7">
-        <v>281</v>
-      </c>
-      <c r="N24" s="7">
-        <v>300016</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>535</v>
-      </c>
-      <c r="D25" s="7">
-        <v>569906</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="H25" s="7">
-        <v>414</v>
-      </c>
-      <c r="I25" s="7">
-        <v>425171</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="M25" s="7">
-        <v>949</v>
-      </c>
-      <c r="N25" s="7">
-        <v>995078</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>388</v>
-      </c>
-      <c r="D26" s="7">
-        <v>416570</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="H26" s="7">
-        <v>335</v>
-      </c>
-      <c r="I26" s="7">
-        <v>352039</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="M26" s="7">
-        <v>723</v>
-      </c>
-      <c r="N26" s="7">
-        <v>768610</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1081</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1163208</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>872</v>
-      </c>
-      <c r="I27" s="7">
-        <v>900495</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1953</v>
-      </c>
-      <c r="N27" s="7">
-        <v>2063703</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>175</v>
+      <c r="A24" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
